--- a/Parachute theory v1.xlsx
+++ b/Parachute theory v1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardo.valadez\Documents\Repositorios\Recovery-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -137,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,9 +156,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -226,7 +226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -411,7 +411,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D44-4E9A-9D39-EB5DD2652138}"/>
             </c:ext>
@@ -582,7 +582,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4D44-4E9A-9D39-EB5DD2652138}"/>
             </c:ext>
@@ -753,7 +753,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4D44-4E9A-9D39-EB5DD2652138}"/>
             </c:ext>
@@ -767,11 +767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="273467672"/>
-        <c:axId val="272953504"/>
+        <c:axId val="1788238432"/>
+        <c:axId val="1788235712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="273467672"/>
+        <c:axId val="1788238432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,7 +818,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -856,15 +856,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272953504"/>
+        <c:crossAx val="1788235712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272953504"/>
+        <c:axId val="1788235712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -949,10 +949,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273467672"/>
+        <c:crossAx val="1788238432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1001,7 +1001,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1031,7 +1031,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1684,6 +1684,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>1) For 1km, density (1.055), dynamic vicosity (1.854*E-5)</a:t>
             </a:fld>
             <a:endParaRPr lang="es-MX" sz="1100"/>
@@ -1733,6 +1734,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>2) For 2km, density (0.954), dynamic vicosity (1.822*E-5)</a:t>
             </a:fld>
             <a:endParaRPr lang="es-MX" sz="1100"/>
@@ -1782,6 +1784,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>3) For 3km, density (0.861), dynamic vicosity (1.79*E-5)</a:t>
             </a:fld>
             <a:endParaRPr lang="es-MX" sz="1100"/>
@@ -2059,11 +2062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2241,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C12:C30" si="3">(B13*9.81)/($F$4*$G$4)</f>
+        <f t="shared" ref="C13:C30" si="3">(B13*9.81)/($F$4*$G$4)</f>
         <v>3.7194312796208533</v>
       </c>
       <c r="D13">
